--- a/Vizsgaremek.xlsx
+++ b/Vizsgaremek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\2024-25 LOGIKER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6DEE160-B411-421C-ACED-F94338631129}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABF35A8-AADB-41C7-9972-181008442B85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{5CDE8CE8-4B33-4A37-8D25-CF8BA04F5BE2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
   <si>
     <t>Feladat</t>
   </si>
@@ -60,15 +60,9 @@
     <t>regisztráció (adat be)</t>
   </si>
   <si>
-    <t>jóváhagyás (validálás)</t>
-  </si>
-  <si>
     <t>kezdeményezés</t>
   </si>
   <si>
-    <t>validálás</t>
-  </si>
-  <si>
     <t>kérelem elfogadása, visszaigazolás</t>
   </si>
   <si>
@@ -79,6 +73,21 @@
   </si>
   <si>
     <t>adat be</t>
+  </si>
+  <si>
+    <t>* = email &amp; jelszó alapján</t>
+  </si>
+  <si>
+    <t>jóváhagyás (validálás*)</t>
+  </si>
+  <si>
+    <t>validálás*</t>
+  </si>
+  <si>
+    <t>tantárgy :</t>
+  </si>
+  <si>
+    <t>Megjegyzés</t>
   </si>
 </sst>
 </file>
@@ -103,7 +112,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -126,11 +135,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -138,6 +184,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -452,126 +511,183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D89447-6161-4C1F-84C1-20416780B87A}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="22.77734375" customWidth="1"/>
     <col min="3" max="3" width="30.77734375" customWidth="1"/>
-    <col min="4" max="4" width="20.77734375" customWidth="1"/>
+    <col min="4" max="5" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>16</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
